--- a/docs/用户端与服务器通信接口2.2.xlsx
+++ b/docs/用户端与服务器通信接口2.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="195">
   <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -833,6 +833,34 @@
       </rPr>
       <t>（power:0 1 2）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这写api的动作行为（get post等）不符合规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规范如下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取数据用 get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加数据用post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新数据用put(提供全部信息)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新数据用patch(提供部分信息)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除用delete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1424,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1941,6 +1969,41 @@
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="E24" s="43" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
